--- a/Assetes & Custody.xlsx
+++ b/Assetes & Custody.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F198"/>
+  <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6426,6 +6426,36 @@
         </is>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Mohammed Abu Issa</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1505</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>ASUS ExpertBook Core i5-10210, Ram 16GB, HDD 512GB, Widows 10 Pro</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>M1NXCV18Y472045</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Assetes & Custody.xlsx
+++ b/Assetes & Custody.xlsx
@@ -1003,17 +1003,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wireless Mouse</t>
+          <t>Keyboard &amp; Mouse</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Logitech Wireless Mouse </t>
+          <t>Logitech COMFORT MK345</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2341LZXCG3K9</t>
+          <t>2502CEG1VED9</t>
         </is>
       </c>
     </row>
@@ -1530,36 +1530,7 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Mohammed Toum</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1289</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Laptop + Bag</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Lenovo ThinkPad E15 Gen4, Core i5-8GB Ram-GB 512SSD Win 10Pro,</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>PF4B47K6</t>
-        </is>
-      </c>
-    </row>
+    <row r="37"/>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
@@ -2385,37 +2356,7 @@
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Rauf Siddique</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1510</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Laptop + Bag</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lenovo ThinkBook 15 G2 ITL CPU: Intel i7-1165G7, Ram: 8GB, Storage: 512GB SSD, 
-OS: Widows 10 Pro  </t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>MP22PLZZ</t>
-        </is>
-      </c>
-    </row>
+    <row r="65"/>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
@@ -2534,11 +2475,6 @@
 RAM: 8GB, OS: Windows 10 Pro </t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>S/N</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3075,11 +3011,6 @@
       <c r="E87" t="inlineStr">
         <is>
           <t>Dell Wireless</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>S/N</t>
         </is>
       </c>
     </row>
@@ -3196,12 +3127,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Think Book 14 G2 ITL i7-1165G7 8G 476GB SSD</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>MP1YW6MV</t>
+          <t>Lenovo IdeapadS340, i5-8265U 1.6GHz, 8GB</t>
         </is>
       </c>
     </row>
@@ -3888,6 +3814,12 @@
           <t>Scanner</t>
         </is>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hp ScanJet Pro 2500f1Flatbed Scanner,
+</t>
+        </is>
+      </c>
       <c r="F114" t="inlineStr">
         <is>
           <t>CN98NA10NH</t>
@@ -3918,11 +3850,6 @@
           <t xml:space="preserve">Dell Screen 24in </t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>S/N</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4047,7 +3974,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mohammed ali </t>
+          <t>V</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -4060,124 +3987,119 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lenovo ThinkBook 14 G2 ITL,Intel i7-1165G7, Ram: 8GB, Storage: 512GB SSD, OS: Widows 10 Pro </t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MP1YVXHH</t>
+          <t xml:space="preserve">Dell HD Screen 24in </t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
+          <t xml:space="preserve">Mohammed ali </t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1627</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lenovo ThinkBook 14 G2 ITL,Intel i7-1165G7, Ram: 8GB, Storage: 512GB SSD, OS: Widows 10 Pro </t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MP1YVXHH</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
           <t xml:space="preserve">Faisal Matari Ali Alwadaei </t>
         </is>
       </c>
-      <c r="B121" t="n">
+      <c r="B122" t="n">
         <v>2331</v>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t xml:space="preserve">Sales </t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>Laptop</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t xml:space="preserve">HP LAPTOP CPU: Intel i3-7020U, Storage: 512GB SSD 
 RAM: 8GB, OS: Windows 10 Home </t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>CND8340S36</t>
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>Mohamed Raseek</t>
         </is>
       </c>
-      <c r="B122" t="n">
+      <c r="B123" t="n">
         <v>3065</v>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Operation</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>Laptop +Bag</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>Lenovo ThinkPad E14 
 i5, 8GB and 512 GB SSD</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>PF468WMX</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sabir Ali </t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>2641</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Laptop +Bag</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Lenovo ThinkBook 500 SSD 8GB</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>MP22V0DE</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wael Mohamed Abdel Hafiz Ibrahim </t>
+          <t xml:space="preserve">Sabir Ali </t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2997</v>
+        <v>2641</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Representation</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4187,144 +4109,144 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>HP Laptop i5-8GB Ram-GB 512SSD Win 11Pro</t>
+          <t>Lenovo ThinkBook 500 SSD 8GB</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>CND9105BJ9</t>
+          <t>MP22V0DE</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Shams Esaifan</t>
+          <t xml:space="preserve">Wael Mohamed Abdel Hafiz Ibrahim </t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>3061</v>
+        <v>2997</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Operation</t>
+          <t>Representation</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>Laptop +Bag</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lenovo ThinkPad i7 core 8GB Ram 512GB SSD  </t>
+          <t>HP Laptop i5-8GB Ram-GB 512SSD Win 11Pro</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PF3K5J2H</t>
+          <t>CND9105BJ9</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
+          <t>Shams Esaifan</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>3061</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Operation</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lenovo ThinkPad i7 core 8GB Ram 512GB SSD  </t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PF3K5J2H</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
           <t>Arjun Villagorda Arnado</t>
         </is>
       </c>
-      <c r="B126" t="n">
+      <c r="B127" t="n">
         <v>2620</v>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>Representation</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>Laptop</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>Lenovo Laptop 
 Intel i5, 500GB SSD, 8GB Ram</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>PF0YEUP3</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Taresh Abdulla</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>2323</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Representation</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Laptop +Bag</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Lenovo Ideapad 1, Core i5, 8GB Ram, 256GB SSD, Win 10 Pro</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>PF3XV6YA</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mamoun Alhousani </t>
+          <t>Taresh Abdulla</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2234</v>
+        <v>2323</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Representation</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>Laptop +Bag</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lenovo ThinkBook 14 G2 ITL Intel i7-1165G7, Ram: 8GB,  512GB SSD, : Widows 10 Pro  </t>
+          <t>Lenovo Ideapad 1, Core i5, 8GB Ram, 256GB SSD, Win 10 Pro</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>MP1YWB59</t>
+          <t>PF3XV6YA</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Islam Sadek</t>
+          <t xml:space="preserve">Mamoun Alhousani </t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2312</v>
+        <v>2234</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -4333,28 +4255,28 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Laptop +Bag</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Lenovo E15 Laptop 15” i5, 512GB, 8GB</t>
+          <t xml:space="preserve">Lenovo ThinkBook 14 G2 ITL Intel i7-1165G7, Ram: 8GB,  512GB SSD, : Widows 10 Pro  </t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>PF3SRGE2</t>
+          <t>MP1YWB59</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Basem Zaki </t>
+          <t>Islam Sadek</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1512</v>
+        <v>2312</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -4363,28 +4285,28 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>Laptop +Bag</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Lenovo Ideapad 1, Core i5, 8GB Ram, 256GB SSD, Win 10 Pro</t>
+          <t>Lenovo E15 Laptop 15” i5, 512GB, 8GB</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>PF3XT2LD</t>
+          <t>PF3SRGE2</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sami Osman</t>
+          <t xml:space="preserve">Basem Zaki </t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1160</v>
+        <v>1512</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -4393,28 +4315,28 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Laptop +Bag</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Lenovo Lenovo ThinkPad E15,  15” Core i5-8GB Ram-GB 512SSD Win 10Pro</t>
+          <t>Lenovo Ideapad 1, Core i5, 8GB Ram, 256GB SSD, Win 10 Pro</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>PF3TDVEZ</t>
+          <t>PF3XT2LD</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Nedal Terkieh</t>
+          <t>Sami Osman</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2520</v>
+        <v>1160</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -4423,28 +4345,28 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>Laptop +Bag</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Lenovo Laptop E14 14” i7, 512GB SSD Sata, 16GB Ram</t>
+          <t>Lenovo Lenovo ThinkPad E15,  15” Core i5-8GB Ram-GB 512SSD Win 10Pro</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>PF3RYM52</t>
+          <t>PF3TDVEZ</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Samer Ahel</t>
+          <t>Nedal Terkieh</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2081</v>
+        <v>2520</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -4458,42 +4380,42 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Lenovo E15 15” i7 512GB 8GB</t>
+          <t>Lenovo Laptop E14 14” i7, 512GB SSD Sata, 16GB Ram</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>PF43JGCD</t>
+          <t>PF3RYM52</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Reem Aljarba</t>
+          <t>Samer Ahel</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Contract</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t xml:space="preserve">DELL Monitor </t>
+          <t>Lenovo E15 15” i7 512GB 8GB</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>service tag D5SBGM3</t>
+          <t>PF43JGCD</t>
         </is>
       </c>
     </row>
@@ -4513,48 +4435,48 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
+          <t>Monitor</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DELL Monitor </t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>service tag D5SBGM3</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Reem Aljarba</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2082</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>Laptop</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>"Lenovo ThinkBook 14 G2 ITL CPU: Intel i7-1165G7, Storage: 512GB SSD 
 RAM: 16GB, OS: Windows 10 Pro"</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>MP1YVRPP</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Mohamed Alhaj</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>2855</v>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hp P24v G4 FHD Monitor  </t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1CR1161RST </t>
         </is>
       </c>
     </row>
@@ -4579,12 +4501,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t xml:space="preserve">ThinkVision 24" S24e-20  </t>
+          <t xml:space="preserve">Hp P24v G4 FHD Monitor  </t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>VNA9KHRY</t>
+          <t xml:space="preserve">1CR1161RST </t>
         </is>
       </c>
     </row>
@@ -4604,28 +4526,28 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Desktop</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t xml:space="preserve">HP ProDesk 400 G6 Desktop Mini PC </t>
+          <t xml:space="preserve">ThinkVision 24" S24e-20  </t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>8CC124239M</t>
+          <t>VNA9KHRY</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Motasem Al Zamil</t>
+          <t>Mohamed Alhaj</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>3000</v>
+        <v>2855</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -4634,88 +4556,88 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Laptop +Bag</t>
+          <t>Desktop</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Lenovo ThinkPad E14 , Core i7-16GB Ram-GB 512 SSD Win 11 Pro</t>
+          <t xml:space="preserve">HP ProDesk 400 G6 Desktop Mini PC </t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>PF4AWPFE</t>
+          <t>8CC124239M</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Mohammed Mehany</t>
+          <t>Motasem Al Zamil</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1321</v>
+        <v>3000</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">MD </t>
+          <t>HR</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>Laptop +Bag</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lenovo ThankBook Laptop, i5core 8GB, 265GB SSD Sata </t>
+          <t>Lenovo ThinkPad E14 , Core i7-16GB Ram-GB 512 SSD Win 11 Pro</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MP25YJ5C</t>
+          <t>PF4AWPFE</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Dana Obaid</t>
+          <t>Mohammed Mehany</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2094</v>
+        <v>1321</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t xml:space="preserve">MD </t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Laptop + Bag</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Lenovo ThinkPad E15 Gen4, Core i5-8GB Ram-GB 512SSD Win 10Pro</t>
+          <t xml:space="preserve">Lenovo ThankBook Laptop, i5core 8GB, 265GB SSD Sata </t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PF4DF206</t>
+          <t xml:space="preserve"> MP25YJ5C</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hajar Albuhayri</t>
+          <t>Dana Obaid</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2366</v>
+        <v>2094</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -4724,17 +4646,17 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Laptop + Bag</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t xml:space="preserve">HP P24v G4 Monitor </t>
+          <t>Lenovo ThinkPad E15 Gen4, Core i5-8GB Ram-GB 512SSD Win 10Pro</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t xml:space="preserve">1CR10502CH </t>
+          <t xml:space="preserve"> PF4DF206</t>
         </is>
       </c>
     </row>
@@ -4754,58 +4676,58 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>LENOVO THINKPAD E15, CORE I5-8GB RAM-512GB SSD WIN 11 PRO,</t>
+          <t xml:space="preserve">HP P24v G4 Monitor </t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>PF45SZZ3</t>
+          <t xml:space="preserve">1CR10502CH </t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Mohammed Abokhalid</t>
+          <t xml:space="preserve"> Hajar Albuhayri</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2993</v>
+        <v>2366</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Laptop + Bag</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Lenovo ThinkPad E16 16"inch , Core i5-8GB Ram-GB 256SSD Win 10Pro,</t>
+          <t>LENOVO THINKPAD E15, CORE I5-8GB RAM-512GB SSD WIN 11 PRO,</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>PF4H0A3F</t>
+          <t>PF45SZZ3</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Alaa Ahmed</t>
+          <t>Mohammed Abokhalid</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2999</v>
+        <v>2993</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -4819,23 +4741,23 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Lenovo ThinkPad E14 , Core i7-16GB Ram-GB 512 SSD Win 11 Pro</t>
+          <t>Lenovo ThinkPad E16 16"inch , Core i5-8GB Ram-GB 256SSD Win 10Pro,</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>PF4B6M7A</t>
+          <t>PF4H0A3F</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Essam Thabet</t>
+          <t>Alaa Ahmed</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>3001</v>
+        <v>2999</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -4844,17 +4766,17 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Keyboard &amp; Mouse</t>
+          <t>Laptop + Bag</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Microsoft Wireless 900</t>
+          <t>Lenovo ThinkPad E14 , Core i7-16GB Ram-GB 512 SSD Win 11 Pro</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>S/N</t>
+          <t>PF4B6M7A</t>
         </is>
       </c>
     </row>
@@ -4874,28 +4796,28 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Laptop + Bag</t>
+          <t>Keyboard &amp; Mouse</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Lenovo ThinkPad L14 , Core i5-8GB Ram-GB 512 SSD Win 11 Pro</t>
+          <t>Logitech COMFORT MK345</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>PF3N8S1T</t>
+          <t>2502CEX1VEH9</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Ibrahim Alhumaidi</t>
+          <t>Essam Thabet</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2370</v>
+        <v>3001</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -4904,47 +4826,47 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>Laptop + Bag</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Lenovo ThinkPad E16 16"inch , Core i5-8GB Ram-GB 256SSD Win 10Pro</t>
+          <t>Lenovo ThinkPad L14 , Core i5-8GB Ram-GB 512 SSD Win 11 Pro</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t xml:space="preserve">PF4H0MFK </t>
+          <t>PF3N8S1T</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saud Bin Hayyan </t>
+          <t>Ibrahim Alhumaidi</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2978</v>
+        <v>2370</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Supply Chain</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dell Monitor 24" S2421HN </t>
+          <t>Lenovo ThinkPad E16 16"inch , Core i5-8GB Ram-GB 256SSD Win 10Pro</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>363DMC3</t>
+          <t xml:space="preserve">PF4H0MFK </t>
         </is>
       </c>
     </row>
@@ -4964,17 +4886,17 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Keyboard</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dell Wireless Mouse &amp; Keyboard </t>
+          <t xml:space="preserve">Dell Monitor 24" S2421HN </t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>S/N</t>
+          <t>363DMC3</t>
         </is>
       </c>
     </row>
@@ -4994,32 +4916,27 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t xml:space="preserve">LenovoIdeapadS340,i58265U1.6GHz,8GBDDR4,   1TBHHD +128G SSD,15.6 FHD, Win10 Home </t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>MP1MC57H</t>
+          <t xml:space="preserve">Dell Wireless Mouse &amp; Keyboard </t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Afnan Alwohaibi</t>
+          <t xml:space="preserve">Saud Bin Hayyan </t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2857</v>
+        <v>2978</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Supply Chain</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5029,12 +4946,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Lenovo ThinkPad E14,U7155H,16GBDDR5,512GB SSD</t>
+          <t xml:space="preserve">LenovoIdeapadS340,i58265U1.6GHz,8GBDDR4,   1TBHHD +128G SSD,15.6 FHD, Win10 Home </t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>PF4W2MC4</t>
+          <t>MP1MC57H</t>
         </is>
       </c>
     </row>
@@ -5054,47 +4971,42 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Wireless keyboard &amp; Mouse</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Lenovo ThinkPad E14,U7155H,16GBDDR5,512GB SSD</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>S/N</t>
+          <t>PF4W2MC4</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sami Kambal</t>
+          <t>Afnan Alwohaibi</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1305</v>
+        <v>2857</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Supply Chain</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Printer</t>
+          <t>Wireless keyboard &amp; Mouse</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t xml:space="preserve">HP Color LaserJet MFP M283fdw </t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>VNBRN8B006</t>
+          <t>S/N</t>
         </is>
       </c>
     </row>
@@ -5104,9 +5016,6 @@
           <t>Sami Kambal</t>
         </is>
       </c>
-      <c r="B155" t="n">
-        <v>1305</v>
-      </c>
       <c r="C155" t="inlineStr">
         <is>
           <t>Supply Chain</t>
@@ -5114,47 +5023,47 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Laptop +Bag</t>
+          <t>Printer</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t xml:space="preserve">HP Laptop core i5 8gb ram 1TB HDD </t>
+          <t xml:space="preserve">HP Color LaserJet MFP M283fdw </t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>CND91226LC</t>
+          <t>VNBRN8B006</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>syed irshad</t>
+          <t>Sami Kambal</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2375</v>
+        <v>1305</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Supply Chain</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Laptop +Bag</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Dell Monitor</t>
+          <t xml:space="preserve">HP Laptop core i5 8gb ram 1TB HDD </t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>CN-0WXV53-WSL00-21L-AJUW-A01</t>
+          <t>CND91226LC</t>
         </is>
       </c>
     </row>
@@ -5174,28 +5083,28 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>desktop</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hp ProDesk 400 G6 Desktop mini pc </t>
+          <t>Dell Monitor</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>8CC1242394</t>
+          <t>CN-0WXV53-WSL00-21L-AJUW-A01</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Rayan Almuqbil</t>
+          <t>syed irshad</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>3079</v>
+        <v>2375</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -5209,87 +5118,88 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Lenovo ThinkBook 500 SSD GB 8GB RAM</t>
+          <t xml:space="preserve">Lenovo ThinkBook 14 G2 ITL CPU: Intel i7-1165G7, Storage: 512GB SSD 
+RAM: 8GB, OS: Windows 10 Pro </t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>MP22J1B2</t>
+          <t>MP1YVZLE</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Raed S. Najem</t>
+          <t>syed irshad</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1301</v>
+        <v>2375</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Supply Chain</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>desktop</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dell 27 Monitor S2721HN  </t>
+          <t xml:space="preserve">Hp ProDesk 400 G6 Desktop mini pc </t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1DQF193</t>
+          <t>8CC1242394</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ibrahim Al Sarraj  </t>
+          <t>Rayan Almuqbil</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>2941</v>
+        <v>3079</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t xml:space="preserve">ThinkVision 24" S24e-20   </t>
+          <t>Lenovo ThinkBook 500 SSD GB 8GB RAM</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>VNA9LW2F</t>
+          <t>MP22J1B2</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Israa Qaisar</t>
+          <t>Raed S. Najem</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1995</v>
+        <v>1301</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>commercial</t>
+          <t>Supply Chain</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5299,42 +5209,42 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>HP P24v G4 FHD</t>
+          <t xml:space="preserve">Dell 27 Monitor S2721HN  </t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1CR10504ML</t>
+          <t>1DQF193</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Israa Qaisar</t>
+          <t xml:space="preserve"> Ibrahim Al Sarraj  </t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1995</v>
+        <v>2941</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>commercial</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Wireless keyboard &amp; Mouse</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Microsoft 900 Wireless Desktop</t>
+          <t xml:space="preserve">ThinkVision 24" S24e-20   </t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>9228035 63363</t>
+          <t>VNA9LW2F</t>
         </is>
       </c>
     </row>
@@ -5354,62 +5264,62 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>ThinkBook14, i7-1165G7,8GB Base DDR4,512GB SSD M.2 2242 NVMe, Win10Pro 64</t>
+          <t>HP P24v G4 FHD</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>MP1YTJZ0</t>
+          <t>1CR10504ML</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Mousa Badran</t>
+          <t>Israa Qaisar</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1593</v>
+        <v>1995</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Operation 	</t>
+          <t>commercial</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wireless Keyboard and Mouse </t>
+          <t>Wireless keyboard &amp; Mouse</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Dell Wireless</t>
+          <t>Microsoft 900 Wireless Desktop</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>0F19YG</t>
+          <t>9228035 63363</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Mousa Badran</t>
+          <t>Israa Qaisar</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1593</v>
+        <v>1995</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Operation 	</t>
+          <t>commercial</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5419,268 +5329,268 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lenovo ThinkPad E16, Core i5-8GB Ram-512GB  SSD Win 11 Pro  </t>
+          <t>ThinkBook14, i7-1165G7,8GB Base DDR4,512GB SSD M.2 2242 NVMe, Win10Pro 64</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>PF4VD0DX</t>
+          <t>MP1YTJZ0</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Mohamed Alkurdi</t>
+          <t>Mousa Badran</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2264</v>
+        <v>1593</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t xml:space="preserve">Operation 	</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t xml:space="preserve">Wireless Keyboard and Mouse </t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t xml:space="preserve">DELL LCD Monitor 24-inch Full HD </t>
+          <t>Dell Wireless</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>CN-0CG5MT-FCC00-06M-CE7B-A01</t>
+          <t>0F19YG</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
+          <t>Mousa Badran</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1593</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Operation 	</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lenovo ThinkPad E16, Core i5-8GB Ram-512GB  SSD Win 11 Pro  </t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>PF4VD0DX</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
           <t>Mohamed Alkurdi</t>
         </is>
       </c>
-      <c r="B167" t="n">
+      <c r="B168" t="n">
         <v>2264</v>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>Admin</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Monitor</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DELL LCD Monitor 24-inch Full HD </t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>CN-0CG5MT-FCC00-06M-CE7B-A01</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Mohamed Alkurdi</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>2264</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
         <is>
           <t>desktop</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t xml:space="preserve">HP PAVILIO  
 CPU: Intel i7, Storage: 1TB SSD 
 RAM: 8GB, OS: Windows 10 Pro </t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>4CE72547MY</t>
         </is>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
+    <row r="170">
+      <c r="A170" t="inlineStr">
         <is>
           <t>Ahmed Almaz</t>
         </is>
       </c>
-      <c r="B168" t="n">
+      <c r="B170" t="n">
         <v>1856</v>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Operation</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
         <is>
           <t>Monitor</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t xml:space="preserve">Dell 24" S2421HN   </t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>1HKDMC3</t>
         </is>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+    <row r="171">
+      <c r="A171" t="inlineStr">
         <is>
           <t>Ahmed Almaz</t>
         </is>
       </c>
-      <c r="B169" t="n">
+      <c r="B171" t="n">
         <v>1856</v>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Operation</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
         <is>
           <t>Laptop</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t xml:space="preserve">Lenovo ThinkBook 14 G2 ITL 
 CPU: Intel i7-1165G7, Storage: 512GB SSD 
 RAM: 8GB, OS: Windows 10 Pro </t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>MP1YVRSZ</t>
         </is>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
+    <row r="172">
+      <c r="A172" t="inlineStr">
         <is>
           <t>Ahmed Almaz</t>
         </is>
       </c>
-      <c r="B170" t="n">
+      <c r="B172" t="n">
         <v>1856</v>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Operation</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
         <is>
           <t>Wireless keyboard &amp; Mouse</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>Dell Wireless</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>0F19YG</t>
         </is>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
+    <row r="173">
+      <c r="A173" t="inlineStr">
         <is>
           <t>Hassan Aljubran</t>
         </is>
       </c>
-      <c r="B171" t="n">
+      <c r="B173" t="n">
         <v>2287</v>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Operation</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
         <is>
           <t>Laptop</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t xml:space="preserve">Lenovo ThinkPad  
 i5, 8GB and 512 GB SSD " </t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>PF3KSGZA</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abdulrahman Adam </t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Lenovo ThinkPad E16 16"inch , Core i5-8GB Ram-GB 512SSD Win 11Pro</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>PF4VCY8S</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Mohamed Abdul Ghaffar</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>3083</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lenovo Laptop E15 15” i5, 512GB SSD Sata, 8GB,  </t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PF3K9KAQ </t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Khalid Abdelgabar</t>
+          <t xml:space="preserve">Abdulrahman Adam </t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>3064</v>
+        <v>1976</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -5694,23 +5604,23 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Lenovo ThinkPad 500 SSD GB 8GB RAM</t>
+          <t>Lenovo ThinkPad E16 16"inch , Core i5-8GB Ram-GB 512SSD Win 11Pro</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>PF3QAM7X</t>
+          <t>PF4VCY8S</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Khalid Abdelgabar</t>
+          <t>Mohamed Abdul Ghaffar</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>3064</v>
+        <v>3083</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -5719,28 +5629,28 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Wireless Mouse</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Logitech Wireless Mouse</t>
+          <t xml:space="preserve">Lenovo Laptop E15 15” i5, 512GB SSD Sata, 8GB,  </t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2341LZXCJBS9</t>
+          <t xml:space="preserve">PF3K9KAQ </t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Raashid Ahamed</t>
+          <t>Khalid Abdelgabar</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1605</v>
+        <v>3064</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -5749,119 +5659,119 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Wireless Mouse</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Logitech Wireless Mouse</t>
+          <t>Lenovo ThinkPad 500 SSD GB 8GB RAM</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2342LZX0H1K9</t>
+          <t>PF3QAM7X</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
+          <t>Khalid Abdelgabar</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>3064</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Operation</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Wireless Mouse</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Logitech Wireless Mouse</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2341LZXCJBS9</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Raashid Ahamed</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1605</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Operation</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Wireless Mouse</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Logitech Wireless Mouse</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2342LZX0H1K9</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
           <t>Abdulaziz Hefzy</t>
         </is>
       </c>
-      <c r="B177" t="n">
+      <c r="B179" t="n">
         <v>3071</v>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Operation</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
         <is>
           <t>Laptop</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t xml:space="preserve">Lenovo ThinkPad E15 Gen2   
 CPU: i5 – 11th, RAM: 8GB, Storage: 512 GB SSD  </t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t xml:space="preserve">PF3QB79D  </t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Zafar Sohail</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>3072</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>Lenovo ThinkPad 500 SSD GB 8GB RAM</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>PF-3QB79D</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Reem Alqahtani</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>3067</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Lenovo ThinkPad E15 500 SSD 8GB</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>PF-3R9E7Y</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Reem Alqahtani</t>
+          <t>Zafar Sohail</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>3067</v>
+        <v>3072</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -5870,17 +5780,17 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Keyboard &amp; Mouse</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Dell Wireless</t>
+          <t>Lenovo ThinkPad 500 SSD GB 8GB RAM</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>0F19YG</t>
+          <t>PF-3QB79D</t>
         </is>
       </c>
     </row>
@@ -5900,28 +5810,28 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Dell Monitor FHD S2421HN</t>
+          <t>Lenovo ThinkPad E15 500 SSD 8GB</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>CN09CTW6-WSL00-3AG-BTB</t>
+          <t>PF-3R9E7Y</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sagheer Muhammaddin</t>
+          <t>Reem Alqahtani</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>3081</v>
+        <v>3067</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -5930,28 +5840,28 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>Keyboard &amp; Mouse</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>LENOVO THINKPAD E15 GEN2, CPU: I5 – 11TH, RAM: 8GB, STORAGE: 512 GB SSD</t>
+          <t>Dell Wireless</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>PF3QDMCE</t>
+          <t>0F19YG</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Njood Aloraini</t>
+          <t>Reem Alqahtani</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2228</v>
+        <v>3067</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -5960,28 +5870,28 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Dell Vostro14-5401 Core i5-1035G1, Ram 8GB,SSD 256GB, Win10Home upgraded to Win10Pro</t>
+          <t>Dell Monitor FHD S2421HN</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>5ND7F63</t>
+          <t>CN09CTW6-WSL00-3AG-BTB</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Njood Aloraini</t>
+          <t>Sagheer Muhammaddin</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>2228</v>
+        <v>3081</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -5990,184 +5900,174 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dell Monitor 24”ln  </t>
+          <t>LENOVO THINKPAD E15 GEN2, CPU: I5 – 11TH, RAM: 8GB, STORAGE: 512 GB SSD</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>CN-01C98J</t>
+          <t>PF3QDMCE</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
+          <t>Njood Aloraini</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>2228</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Operation</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Dell Vostro14-5401 Core i5-1035G1, Ram 8GB,SSD 256GB, Win10Home upgraded to Win10Pro</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>5ND7F63</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Njood Aloraini</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>2228</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Operation</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Monitor</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dell Monitor 24”ln  </t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>CN-01C98J</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
           <t>Altaf</t>
         </is>
       </c>
-      <c r="B185" t="n">
+      <c r="B187" t="n">
         <v>3078</v>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Operation</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
         <is>
           <t>Laptop</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t xml:space="preserve">Lenovo ThinkBook 14 G2 ITL  
 CPU: Intel i5-1135G7, Storage: 256GB SSD  
 RAM: 8GB, OS: Windows 10 Pro  </t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t xml:space="preserve">MP1YXKAP </t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Ahmad Altarhuni</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>2552</v>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>commercial</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Tablet</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Lenovo</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>HA1K74KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Mahmoud Maaly</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>3080</v>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>commercial</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Lenovo Laptop ThinkPad, 250GB SSD 8GB</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>PF3JRJEB</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Abdulraman Al-Maliki</t>
+          <t>Ahmad Altarhuni</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>3084</v>
+        <v>2552</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>commercial</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>desktop</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>Desktop Dell OptiPlex 7090</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>1VNZHP3</t>
+          <t>Keyboard &amp; Mouse</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Abdulraman Al-Maliki</t>
+          <t>Ahmad Altarhuni</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>3084</v>
+        <v>2552</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>commercial</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>desktop</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Dell OptiPlex 7090 i7,16GB - SSD 512GB,</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Service Tag 882D2Q3</t>
+          <t>CTNZHP3</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Abdulraman Al-Maliki</t>
+          <t>Ahmad Altarhuni</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>3084</v>
+        <v>2552</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>commercial</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6177,27 +6077,27 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Microsoft wireless Keyboard and Mouse</t>
+          <t>Logitech COMFORT MK345</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>S/N</t>
+          <t>2502CEC1VEE9</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Abdul Saeed</t>
+          <t>Mahmoud Maaly</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1486</v>
+        <v>3080</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Operation</t>
+          <t>commercial</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6207,83 +6107,83 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Lenovo Laptop IDEAPAD, 250GB SSD 8GB</t>
+          <t>Lenovo Laptop ThinkPad, 250GB SSD 8GB</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>PF3Y7Z66</t>
+          <t>PF3JRJEB</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Ahmed Ali</t>
+          <t>Abdulraman Al-Maliki</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>3121</v>
+        <v>3084</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>commercial</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>desktop</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Lenovo Laptop IDEAPAD, 250GB SSD 8GB</t>
+          <t>Desktop Dell OptiPlex 7090</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>PF3YANCW</t>
+          <t>1VNZHP3</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Youssef Afify</t>
+          <t>Abdulraman Al-Maliki</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>3075</v>
+        <v>3084</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>commercial</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Lenovo Laptop IDEAPAD, 250GB SSD 8GB</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>PF3XSR9Z</t>
+          <t>Service Tag 882D2Q3</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Omar Alomush</t>
+          <t>Abdulraman Al-Maliki</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>3033</v>
+        <v>3084</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -6292,88 +6192,88 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>Keyboard and Mouse</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lenovo ThinkBook 14 G2 ITL CPU: Intel i7-1165G7, Storage: 512GB SSD RAM: 16GB, OS: Windows 10 Pro </t>
+          <t>Microsoft wireless Keyboard and Mouse</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>MP1YTPN3</t>
+          <t>S/N</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Omar Alomush</t>
+          <t>Abdul Saeed</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>3033</v>
+        <v>1486</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Operation</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>DELL 24in</t>
+          <t>Lenovo Laptop IDEAPAD, 250GB SSD 8GB</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>S/N</t>
+          <t>PF3Y7Z66</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Omar Alomush</t>
+          <t>Ahmed Ali</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>3033</v>
+        <v>3121</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>commercial</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Keyboard &amp; Mouse</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Lenovo Laptop IDEAPAD, 250GB SSD 8GB</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>S/N</t>
+          <t>PF3YANCW</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Rami Muala</t>
+          <t>Youssef Afify</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>3082</v>
+        <v>3075</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -6382,62 +6282,62 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Lenovo Laptop IDEAPAD, 512GB SSD 8 GB</t>
+          <t>Dell Monitor</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>PF3Y5XR8</t>
+          <t>CN09WCH1FCC00237AVHXA01</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Mohammed Abu Issa</t>
+          <t>Youssef Afify</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1505</v>
+        <v>3075</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>commercial</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lenovo Tab M10 HD  </t>
+          <t>Lenovo Laptop IDEAPAD, 250GB SSD 8GB</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>HA1K7BZ3</t>
+          <t>PF3XSR9Z</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Mohammed Abu Issa</t>
+          <t>Omar Alomush</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1505</v>
+        <v>3033</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6447,12 +6347,12 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>ASUS ExpertBook Core i5-10210, Ram 16GB, HDD 512GB, Widows 10 Pro</t>
+          <t xml:space="preserve">Lenovo ThinkBook 14 G2 ITL CPU: Intel i7-1165G7, Storage: 512GB SSD RAM: 16GB, OS: Windows 10 Pro </t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>M1NXCV18Y472045</t>
+          <t>MP1YTPN3</t>
         </is>
       </c>
     </row>
